--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,28 +46,34 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointment</t>
-  </si>
-  <si>
     <t>ripped</t>
   </si>
   <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>pool</t>
   </si>
   <si>
     <t>loose</t>
@@ -76,208 +82,223 @@
     <t>waste</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>probably</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>un</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>lasted</t>
+    <t>half</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>maybe</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>sound</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>picture</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>could</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>box</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>box</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>like</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>negative</t>
@@ -295,21 +316,21 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>enjoyable</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -334,52 +355,58 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>enjoys</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>game</t>
+  </si>
+  <si>
+    <t>cute</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>playing</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>good</t>
@@ -743,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,10 +778,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -812,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -830,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -883,16 +910,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -904,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -912,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8095238095238095</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -933,16 +960,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K5">
-        <v>0.8461538461538461</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -954,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -962,13 +989,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -980,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1004,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1012,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7183098591549296</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1030,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1054,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1062,38 +1089,38 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7142857142857143</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8">
+        <v>0.75</v>
+      </c>
+      <c r="L8">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="M8">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8">
-        <v>0.71875</v>
-      </c>
-      <c r="L8">
-        <v>46</v>
-      </c>
-      <c r="M8">
-        <v>46</v>
-      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -1104,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1112,13 +1139,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7037037037037037</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1130,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K9">
         <v>0.7083333333333334</v>
@@ -1162,13 +1189,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6827956989247311</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C10">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1180,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K10">
-        <v>0.6521739130434783</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1204,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1233,16 +1260,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K11">
-        <v>0.6226415094339622</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1254,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1283,16 +1310,16 @@
         <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K12">
-        <v>0.563845050215208</v>
+        <v>0.5437589670014347</v>
       </c>
       <c r="L12">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M12">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1304,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1312,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1330,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K13">
-        <v>0.4688796680497925</v>
+        <v>0.479253112033195</v>
       </c>
       <c r="L13">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M13">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1354,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1362,13 +1389,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6351351351351351</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C14">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1380,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K14">
-        <v>0.4565573770491803</v>
+        <v>0.4491803278688525</v>
       </c>
       <c r="L14">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="M14">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1404,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1412,13 +1439,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6019417475728155</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1430,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K15">
-        <v>0.3486238532110092</v>
+        <v>0.3577981651376147</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1454,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1462,13 +1489,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1480,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K16">
-        <v>0.3166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1504,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1512,13 +1539,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5833333333333334</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1530,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K17">
-        <v>0.3012048192771085</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1554,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1562,13 +1589,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5789473684210527</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1580,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K18">
-        <v>0.291005291005291</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="L18">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M18">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1604,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1612,13 +1639,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1630,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K19">
-        <v>0.2830188679245283</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1654,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1662,13 +1689,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5546218487394958</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1680,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K20">
-        <v>0.2459016393442623</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L20">
         <v>15</v>
@@ -1704,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1712,13 +1739,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5454545454545454</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1730,19 +1757,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K21">
-        <v>0.2008032128514056</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1754,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>199</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1762,13 +1789,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5428571428571428</v>
+        <v>0.5625</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1780,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K22">
-        <v>0.1989247311827957</v>
+        <v>0.21875</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1804,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1812,13 +1839,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5014492753623189</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C23">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1830,19 +1857,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K23">
-        <v>0.1984126984126984</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1854,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1862,13 +1889,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1880,19 +1907,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K24">
-        <v>0.1796875</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1904,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1912,13 +1939,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4883720930232558</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1930,19 +1957,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K25">
-        <v>0.1608391608391608</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1954,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1962,13 +1989,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4761904761904762</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1980,31 +2007,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K26">
-        <v>0.156140350877193</v>
+        <v>0.192</v>
       </c>
       <c r="L26">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>962</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2012,13 +2039,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4444444444444444</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2030,19 +2057,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K27">
-        <v>0.1538461538461539</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2054,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>99</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2062,13 +2089,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4409448818897638</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2080,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K28">
-        <v>0.144</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2104,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2112,13 +2139,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4337349397590362</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2130,31 +2157,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K29">
-        <v>0.09090909090909091</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>340</v>
+        <v>960</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2162,7 +2189,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4259259259259259</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C30">
         <v>23</v>
@@ -2180,31 +2207,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K30">
-        <v>0.08171206225680934</v>
+        <v>0.0792722547108512</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>236</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2212,13 +2239,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4047619047619048</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2230,31 +2257,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K31">
-        <v>0.07597402597402597</v>
+        <v>0.07392996108949416</v>
       </c>
       <c r="L31">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1423</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2262,13 +2289,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3981042654028436</v>
+        <v>0.390625</v>
       </c>
       <c r="C32">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D32">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2280,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K32">
-        <v>0.07242339832869081</v>
+        <v>0.07219251336898395</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2304,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2312,13 +2339,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3894736842105263</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2330,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K33">
-        <v>0.06481481481481481</v>
+        <v>0.06685236768802229</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2354,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>303</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2362,13 +2389,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3888888888888889</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2380,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K34">
         <v>0.06206896551724138</v>
@@ -2412,13 +2439,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3888888888888889</v>
+        <v>0.375</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2430,31 +2457,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K35">
-        <v>0.04266666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>718</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2462,13 +2489,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3877551020408163</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2480,31 +2507,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K36">
-        <v>0.02560455192034139</v>
+        <v>0.03728362183754994</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N36">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>685</v>
+        <v>723</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2512,13 +2539,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3833333333333334</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2530,7 +2557,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37">
+        <v>0.02841918294849023</v>
+      </c>
+      <c r="L37">
+        <v>16</v>
+      </c>
+      <c r="M37">
+        <v>18</v>
+      </c>
+      <c r="N37">
+        <v>0.89</v>
+      </c>
+      <c r="O37">
+        <v>0.11</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2538,13 +2589,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3809523809523809</v>
+        <v>0.3696682464454976</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2556,7 +2607,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>39</v>
+        <v>133</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K38">
+        <v>0.02706552706552707</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>0.86</v>
+      </c>
+      <c r="O38">
+        <v>0.14</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>683</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2564,13 +2639,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3809523809523809</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2582,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2590,13 +2665,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3636363636363636</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2608,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2616,13 +2691,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.359375</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2634,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2642,13 +2717,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.359375</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C42">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2660,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2668,13 +2743,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3258426966292135</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2686,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2694,13 +2769,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3103448275862069</v>
+        <v>0.301980198019802</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2712,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>40</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2720,13 +2795,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2821782178217822</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C45">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2738,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>145</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2746,7 +2821,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2622950819672131</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C46">
         <v>16</v>
@@ -2764,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2772,13 +2847,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2422680412371134</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C47">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2790,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>147</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2798,13 +2873,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2222222222222222</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2816,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2824,13 +2899,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2173913043478261</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2842,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2850,13 +2925,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2142857142857143</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2868,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2876,13 +2951,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.195</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C51">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2894,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>161</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2902,13 +2977,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1920289855072464</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C52">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2920,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>223</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2928,13 +3003,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1779661016949153</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2946,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2954,13 +3029,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1758241758241758</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2972,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2980,13 +3055,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1714285714285714</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2998,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3006,13 +3081,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1708860759493671</v>
+        <v>0.175</v>
       </c>
       <c r="C56">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D56">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3024,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>262</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3032,25 +3107,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1682242990654206</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C57">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D57">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3058,25 +3133,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1609195402298851</v>
+        <v>0.1711309523809524</v>
       </c>
       <c r="C58">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="D58">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>292</v>
+        <v>557</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3084,25 +3159,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1604754829123329</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C59">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="D59">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="E59">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>565</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3110,13 +3185,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1582278481012658</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C60">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3128,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>266</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3136,13 +3211,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.154639175257732</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3154,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>82</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3162,13 +3237,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.154639175257732</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3188,25 +3263,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1388888888888889</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3214,13 +3289,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1371428571428571</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3232,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>151</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3240,13 +3315,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1273885350318471</v>
+        <v>0.15</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3258,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3266,25 +3341,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1176470588235294</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C66">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D66">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E66">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3292,25 +3367,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1171875</v>
+        <v>0.1440922190201729</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>113</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3318,13 +3393,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1167400881057269</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C68">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3336,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>401</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3344,25 +3419,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1129032258064516</v>
+        <v>0.1280353200883002</v>
       </c>
       <c r="C69">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D69">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>220</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3370,13 +3445,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.09740259740259741</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3388,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3396,13 +3471,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09737827715355805</v>
+        <v>0.125</v>
       </c>
       <c r="C71">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3414,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>241</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3422,13 +3497,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09424083769633508</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C72">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D72">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3440,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>173</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3448,25 +3523,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.0821917808219178</v>
+        <v>0.1229946524064171</v>
       </c>
       <c r="C73">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>335</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3474,25 +3549,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08205128205128205</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E74">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3500,13 +3575,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.08196721311475409</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="C75">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D75">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3518,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3526,25 +3601,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.08169014084507042</v>
+        <v>0.1015037593984962</v>
       </c>
       <c r="C76">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>326</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3552,25 +3627,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07589285714285714</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C77">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D77">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F77">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>414</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3578,25 +3653,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06930693069306931</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="C78">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E78">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F78">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>564</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3604,25 +3679,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06810035842293907</v>
+        <v>0.08258928571428571</v>
       </c>
       <c r="C79">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E79">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F79">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>260</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3630,25 +3705,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.05696202531645569</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D80">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E80">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>298</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3656,25 +3731,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.04900459418070444</v>
+        <v>0.07967032967032966</v>
       </c>
       <c r="C81">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D81">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E81">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F81">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>621</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3682,25 +3757,207 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.03703703703703703</v>
+        <v>0.06765676567656766</v>
       </c>
       <c r="C82">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D82">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E82">
-        <v>0.28</v>
+        <v>0.05</v>
       </c>
       <c r="F82">
-        <v>0.72</v>
+        <v>0.95</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>754</v>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.06478873239436619</v>
+      </c>
+      <c r="C83">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>23</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.05379746835443038</v>
+      </c>
+      <c r="C84">
+        <v>17</v>
+      </c>
+      <c r="D84">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>0.06</v>
+      </c>
+      <c r="F84">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.05104408352668213</v>
+      </c>
+      <c r="C85">
+        <v>22</v>
+      </c>
+      <c r="D85">
+        <v>25</v>
+      </c>
+      <c r="E85">
+        <v>0.12</v>
+      </c>
+      <c r="F85">
+        <v>0.88</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.0457433290978399</v>
+      </c>
+      <c r="C86">
+        <v>36</v>
+      </c>
+      <c r="D86">
+        <v>43</v>
+      </c>
+      <c r="E86">
+        <v>0.16</v>
+      </c>
+      <c r="F86">
+        <v>0.84</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.03522205206738132</v>
+      </c>
+      <c r="C87">
+        <v>23</v>
+      </c>
+      <c r="D87">
+        <v>25</v>
+      </c>
+      <c r="E87">
+        <v>0.08</v>
+      </c>
+      <c r="F87">
+        <v>0.92</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.03416856492027335</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>23</v>
+      </c>
+      <c r="E88">
+        <v>0.35</v>
+      </c>
+      <c r="F88">
+        <v>0.65</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.02994011976047904</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>0.17</v>
+      </c>
+      <c r="F89">
+        <v>0.83</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
